--- a/biology/Zoologie/Eurycea_aquatica/Eurycea_aquatica.xlsx
+++ b/biology/Zoologie/Eurycea_aquatica/Eurycea_aquatica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurycea aquatica est une espèce d'urodèles de la famille des Plethodontidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurycea aquatica est une espèce d'urodèles de la famille des Plethodontidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du centre-Est des États-Unis[1]. Elle se rencontre :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du centre-Est des États-Unis. Elle se rencontre :
 dans le nord de l'Alabama ;
 dans le nord-ouest de la Géorgie ;
 dans le Tennessee.
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 85,5 mm de longueur totale dont 44,8 mm de longueur standard et 40,7 mm de queue[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 85,5 mm de longueur totale dont 44,8 mm de longueur standard et 40,7 mm de queue.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été nommée en référence à ses mœurs apparemment aquatiques[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été nommée en référence à ses mœurs apparemment aquatiques.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rose &amp; Bush, 1963 : A new species of Eurycea (Amphibia: Caudata) from the southeastern United States. Tulane Studies in Zoology, vol. 10, p. 121-128 (texte intégral).</t>
         </is>
